--- a/fin-web/src/main/webapp/templates/importWhiteList.xlsx
+++ b/fin-web/src/main/webapp/templates/importWhiteList.xlsx
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>所属总包商名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,6 +752,10 @@
   </si>
   <si>
     <t>当地日最低工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>520103198910184818</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,9 +877,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +885,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1183,13 +1190,13 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26" style="8" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
@@ -1198,7 +1205,7 @@
     <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
@@ -1208,7 +1215,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1238,7 +1245,7 @@
       <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1249,8 +1256,8 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5">
-        <v>5.20103198910184E+17</v>
+      <c r="C2" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D2">
         <v>17585565898</v>
@@ -1258,10 +1265,10 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>43391</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>43392</v>
       </c>
       <c r="H2" t="s">
@@ -1279,7 +1286,7 @@
       <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>100</v>
       </c>
     </row>

--- a/fin-web/src/main/webapp/templates/importWhiteList.xlsx
+++ b/fin-web/src/main/webapp/templates/importWhiteList.xlsx
@@ -362,7 +362,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>yyyyMMdd</t>
+          <t>yyyy/MM/dd</t>
         </r>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>20180310</t>
+          <t>2018/03/10</t>
         </r>
       </text>
     </comment>
@@ -430,7 +430,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> “yyyyMMdd”
+          <t xml:space="preserve"> “yyyy/MM/dd”
 </t>
         </r>
         <r>
@@ -452,7 +452,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>20180310</t>
+          <t>2018/03/10</t>
         </r>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>所属总包商名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -734,28 +734,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试总包商</t>
+    <t>有</t>
+  </si>
+  <si>
+    <t>当地日最低工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx总包商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15或18位身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13位手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包工头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打卡</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>陈淸玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当地日最低工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>520103198910184818</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1246,33 +1256,33 @@
         <v>8</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
-        <v>17585565898</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43391</v>
-      </c>
-      <c r="G2" s="5">
-        <v>43392</v>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1284,7 +1294,7 @@
         <v>5000</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M2" s="4">
         <v>100</v>

--- a/fin-web/src/main/webapp/templates/importWhiteList.xlsx
+++ b/fin-web/src/main/webapp/templates/importWhiteList.xlsx
@@ -60,7 +60,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>该员工所属的总包商名称（如何：匹配不上该条数据导入失败）</t>
+          <t>该员工所属的总包商名称（如果匹配不上该条数据导入失败）</t>
         </r>
       </text>
     </comment>
@@ -572,7 +572,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>发薪的日（</t>
+          <t>发薪日（</t>
         </r>
         <r>
           <rPr>
@@ -753,10 +753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13位手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yyyy/MM/dd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -766,6 +762,10 @@
   </si>
   <si>
     <t>打卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11位手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" activeCellId="1" sqref="L1 K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1270,19 +1270,19 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>5000</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="4">
         <v>100</v>

--- a/fin-web/src/main/webapp/templates/importWhiteList.xlsx
+++ b/fin-web/src/main/webapp/templates/importWhiteList.xlsx
@@ -606,7 +606,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>选填项</t>
+          <t>必填项</t>
         </r>
         <r>
           <rPr>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" activeCellId="1" sqref="L1 K15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/fin-web/src/main/webapp/templates/importWhiteList.xlsx
+++ b/fin-web/src/main/webapp/templates/importWhiteList.xlsx
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/fin-web/src/main/webapp/templates/importWhiteList.xlsx
+++ b/fin-web/src/main/webapp/templates/importWhiteList.xlsx
@@ -166,7 +166,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>必填项</t>
+          <t>选填项</t>
         </r>
         <r>
           <rPr>
@@ -317,6 +317,17 @@
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（若合同状态为‘无’无可以不填）</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -407,24 +418,64 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>签约合同的结束日期
-格式为</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>（若合同状态为‘无’可以不填）</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>签约合同的结束日期</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>格式为</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -435,7 +486,6 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
@@ -446,23 +496,12 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>2018/03/10</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
         </r>
       </text>
     </comment>
@@ -773,7 +812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +882,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -874,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,6 +948,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1200,7 +1250,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1228,7 +1278,7 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
